--- a/Properties.xlsx
+++ b/Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\Coding\dialog_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41710FDA-6A33-4F94-A7C5-EAE8DD677016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E497C317-8933-4655-B1DE-DF394154B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8136" yWindow="0" windowWidth="15000" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
   <si>
     <t>TextBox</t>
   </si>
@@ -159,7 +159,28 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -438,7 +459,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +536,9 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -834,6 +858,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>